--- a/2021-0313846_slurry_separation/EF_calcs/inputs/inputs.xlsx
+++ b/2021-0313846_slurry_separation/EF_calcs/inputs/inputs.xlsx
@@ -1,19 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\au583430\OneDrive - Aarhus Universitet\Dokumenter\GitHub\AU-myndighedsbetjening\2021-0313846_slurry_separation\EF_calcs\inputs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_DCFD398B46027D30FD81CAB93E44D4F369EAA4B0" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{E02609A7-169B-4B10-9B31-7F347E91C28A}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView xWindow="-38520" yWindow="-3045" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Slurry &amp; application" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Climate" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Separation &amp; storage" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Slurry &amp; application" sheetId="1" r:id="rId1"/>
+    <sheet name="Climate" sheetId="2" r:id="rId2"/>
+    <sheet name="Separation &amp; storage" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
@@ -24,150 +35,129 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="35">
   <si>
-    <t xml:space="preserve">man.source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fraction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">man.dm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">man.ph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">incorp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">app.mthd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t.incorp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">app.rate.ni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Svinegylle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">raw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">none</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trailing hose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kvæggylle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Afgasset biomasse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">liquid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">solid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Broadcast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">app.timing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">air.temp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wind.2m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rain.rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">April</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sommer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Efterår</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scenario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sep.eff.TAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EF.stor.raw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EF.stor.liquid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EF.stor.solid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">low</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">high</t>
+    <t>man.source</t>
+  </si>
+  <si>
+    <t>fraction</t>
+  </si>
+  <si>
+    <t>man.dm</t>
+  </si>
+  <si>
+    <t>man.ph</t>
+  </si>
+  <si>
+    <t>incorp</t>
+  </si>
+  <si>
+    <t>app.mthd</t>
+  </si>
+  <si>
+    <t>t.incorp</t>
+  </si>
+  <si>
+    <t>app.rate.ni</t>
+  </si>
+  <si>
+    <t>Svinegylle</t>
+  </si>
+  <si>
+    <t>raw</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>Trailing hose</t>
+  </si>
+  <si>
+    <t>Kvæggylle</t>
+  </si>
+  <si>
+    <t>Afgasset biomasse</t>
+  </si>
+  <si>
+    <t>liquid</t>
+  </si>
+  <si>
+    <t>solid</t>
+  </si>
+  <si>
+    <t>deep</t>
+  </si>
+  <si>
+    <t>Broadcast</t>
+  </si>
+  <si>
+    <t>app.timing</t>
+  </si>
+  <si>
+    <t>air.temp</t>
+  </si>
+  <si>
+    <t>wind.2m</t>
+  </si>
+  <si>
+    <t>rain.rate</t>
+  </si>
+  <si>
+    <t>Marts</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>Maj</t>
+  </si>
+  <si>
+    <t>Sommer</t>
+  </si>
+  <si>
+    <t>Efterår</t>
+  </si>
+  <si>
+    <t>scenario</t>
+  </si>
+  <si>
+    <t>sep.eff.TAN</t>
+  </si>
+  <si>
+    <t>EF.stor.raw</t>
+  </si>
+  <si>
+    <t>EF.stor.liquid</t>
+  </si>
+  <si>
+    <t>EF.stor.solid</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>mid</t>
+  </si>
+  <si>
+    <t>high</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="0.00"/>
-    <numFmt numFmtId="167" formatCode="General"/>
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="2">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Sans"/>
-      <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF2A6099"/>
       <name val="Sans"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -180,7 +170,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -188,69 +178,35 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -309,32 +265,340 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:H13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMG13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.86"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="10.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="1" width="10.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.29"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1021" min="7" style="1" width="10.14"/>
+    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="2"/>
+    <col min="3" max="5" width="10.140625" style="1"/>
+    <col min="6" max="6" width="11.28515625" style="1" customWidth="1"/>
+    <col min="7" max="1021" width="10.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -360,17 +624,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="1">
         <v>3.9</v>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="4">
         <v>7.2</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -379,21 +643,21 @@
       <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="1" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H2" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="1">
         <v>6.5</v>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3" s="4">
         <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -402,21 +666,21 @@
       <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="1" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H3" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="1">
         <v>5.9</v>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="4">
         <v>7.9</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -425,22 +689,22 @@
       <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="1" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H4" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5" t="n">
-        <f aca="false">0.5*C2</f>
+      <c r="C5" s="5">
+        <f>0.5*C2</f>
         <v>1.95</v>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="4">
         <v>7.2</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -449,22 +713,22 @@
       <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="1" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H5" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="5" t="n">
-        <f aca="false">0.5*C3</f>
+      <c r="C6" s="5">
+        <f>0.5*C3</f>
         <v>3.25</v>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="4">
         <v>7</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -473,22 +737,22 @@
       <c r="F6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="1" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H6" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="5" t="n">
-        <f aca="false">0.5*C4</f>
+      <c r="C7" s="5">
+        <f>0.5*C4</f>
         <v>2.95</v>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" s="4">
         <v>7.9</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -497,21 +761,21 @@
       <c r="F7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="1" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H7" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="1">
         <v>15</v>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" s="4">
         <v>7.2</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -520,24 +784,24 @@
       <c r="F8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="1" t="n">
+      <c r="G8" s="1">
         <v>4</v>
       </c>
-      <c r="H8" s="1" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H8" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="1">
         <v>15</v>
       </c>
-      <c r="D9" s="4" t="n">
+      <c r="D9" s="4">
         <v>7</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -546,24 +810,24 @@
       <c r="F9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="1" t="n">
+      <c r="G9" s="1">
         <v>4</v>
       </c>
-      <c r="H9" s="1" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H9" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="1">
         <v>15</v>
       </c>
-      <c r="D10" s="4" t="n">
+      <c r="D10" s="4">
         <v>7.9</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -572,24 +836,24 @@
       <c r="F10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="1" t="n">
+      <c r="G10" s="1">
         <v>4</v>
       </c>
-      <c r="H10" s="1" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H10" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="1">
         <v>15</v>
       </c>
-      <c r="D11" s="4" t="n">
+      <c r="D11" s="4">
         <v>7.2</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -598,21 +862,21 @@
       <c r="F11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="1" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H11" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C12" s="1">
         <v>15</v>
       </c>
-      <c r="D12" s="4" t="n">
+      <c r="D12" s="4">
         <v>7</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -621,21 +885,21 @@
       <c r="F12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="1" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H12" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C13" s="1">
         <v>15</v>
       </c>
-      <c r="D13" s="4" t="n">
+      <c r="D13" s="4">
         <v>7.9</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -644,7 +908,7 @@
       <c r="F13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="1" t="n">
+      <c r="H13" s="1">
         <v>30</v>
       </c>
     </row>
@@ -652,19 +916,18 @@
   <conditionalFormatting sqref="B2:B13">
     <cfRule type="colorScale" priority="2">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -672,26 +935,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AMI6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.14453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.29"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="5" style="1" width="10.14"/>
+    <col min="1" max="1" width="12.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" style="1" customWidth="1"/>
+    <col min="5" max="1023" width="10.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -705,81 +965,80 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="6" t="n">
+      <c r="B2" s="6">
         <v>4.43101207056639</v>
       </c>
-      <c r="C2" s="6" t="n">
+      <c r="C2" s="6">
         <v>4.05891613991413</v>
       </c>
-      <c r="D2" s="6" t="n">
-        <v>0.0599629009095261</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2" s="6">
+        <v>5.99629009095261E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="6" t="n">
+      <c r="B3" s="6">
         <v>8.23645983645984</v>
       </c>
-      <c r="C3" s="6" t="n">
-        <v>3.84445591865745</v>
-      </c>
-      <c r="D3" s="6" t="n">
-        <v>0.0552119412831931</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="6">
+        <v>3.8444559186574501</v>
+      </c>
+      <c r="D3" s="6">
+        <v>5.5211941283193101E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="6" t="n">
+      <c r="B4" s="6">
         <v>12.4492495309568</v>
       </c>
-      <c r="C4" s="6" t="n">
-        <v>3.48391526295633</v>
-      </c>
-      <c r="D4" s="6" t="n">
-        <v>0.0702993488962998</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="6">
+        <v>3.4839152629563301</v>
+      </c>
+      <c r="D4" s="6">
+        <v>7.0299348896299796E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="6" t="n">
-        <v>16.8762259816193</v>
-      </c>
-      <c r="C5" s="6" t="n">
-        <v>3.15624012423227</v>
-      </c>
-      <c r="D5" s="6" t="n">
+      <c r="B5" s="6">
+        <v>16.876225981619299</v>
+      </c>
+      <c r="C5" s="6">
+        <v>3.1562401242322702</v>
+      </c>
+      <c r="D5" s="6">
         <v>0.105925308296069</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="6" t="n">
+      <c r="B6" s="6">
         <v>14.4977479635841</v>
       </c>
-      <c r="C6" s="6" t="n">
-        <v>3.32276959833633</v>
-      </c>
-      <c r="D6" s="6" t="n">
-        <v>0.128260170445409</v>
+      <c r="C6" s="6">
+        <v>3.3227695983363299</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.12826017044540899</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -787,24 +1046,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AMJ4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.08203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="10.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.22"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="1" width="10.08"/>
+    <col min="1" max="3" width="10.140625" style="1"/>
+    <col min="4" max="4" width="11.28515625" style="1" customWidth="1"/>
+    <col min="5" max="1024" width="10.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -821,62 +1077,61 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="1">
         <v>0.05</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="1">
         <v>0.1</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="1">
         <v>0.01</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E2" s="1">
         <v>0.05</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="1">
         <v>0.15</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="1">
         <v>0.1</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="1">
         <v>0.1</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3" s="1">
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="1" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C4" s="1" t="n">
+      <c r="B4" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C4" s="1">
         <v>0.1</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" s="1">
         <v>0.15</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E4" s="1">
         <v>0.2</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/2021-0313846_slurry_separation/EF_calcs/inputs/inputs.xlsx
+++ b/2021-0313846_slurry_separation/EF_calcs/inputs/inputs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Slurry &amp; application" sheetId="1" state="visible" r:id="rId2"/>
@@ -473,21 +473,21 @@
   </sheetPr>
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.14453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.86"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="2" width="10.13"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="5" style="1" width="10.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="2" width="10.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="5" style="1" width="10.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.29"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="9" style="1" width="10.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="9" style="1" width="10.14"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -519,7 +519,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>10</v>
       </c>
@@ -548,7 +548,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>10</v>
       </c>
@@ -577,7 +577,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
@@ -606,7 +606,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>18</v>
       </c>
@@ -636,7 +636,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>18</v>
       </c>
@@ -666,7 +666,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>18</v>
       </c>
@@ -696,7 +696,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>21</v>
       </c>
@@ -726,7 +726,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>21</v>
       </c>
@@ -756,7 +756,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>21</v>
       </c>
@@ -786,7 +786,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>23</v>
       </c>
@@ -816,7 +816,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>23</v>
       </c>
@@ -846,7 +846,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>23</v>
       </c>
@@ -876,7 +876,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>25</v>
       </c>
@@ -906,7 +906,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>25</v>
       </c>
@@ -936,7 +936,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>25</v>
       </c>
@@ -966,7 +966,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>18</v>
       </c>
@@ -996,7 +996,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>18</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>18</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>18</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>18</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>18</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>21</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>21</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>21</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>21</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>21</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>21</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>23</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>23</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>23</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>23</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>23</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>23</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>25</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>25</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>25</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>25</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>25</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
         <v>25</v>
       </c>
@@ -1711,7 +1711,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C16 C14:C16">
+  <conditionalFormatting sqref="C14:C16 C16">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1865,13 +1865,13 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.13671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.14453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.29"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="5" style="1" width="10.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="5" style="1" width="10.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1974,20 +1974,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.13671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.14453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="10.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.37"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.29"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="1" width="10.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="1" width="10.14"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1995,7 +1997,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -2003,23 +2005,23 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -2027,8 +2029,6 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2049,20 +2049,20 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.08203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.14453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.04"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="1" width="10.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="1" width="10.14"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2079,15 +2079,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="8" t="n">
-        <v>0.025</v>
+        <v>0.013</v>
       </c>
       <c r="C2" s="8" t="n">
-        <v>0.025</v>
+        <v>0.013</v>
       </c>
       <c r="D2" s="9" t="n">
         <f aca="false">13/0.79/100</f>
@@ -2098,15 +2098,15 @@
         <v>0.354430379746835</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="8" t="n">
-        <v>0.034</v>
+        <v>0.017</v>
       </c>
       <c r="C3" s="8" t="n">
-        <v>0.034</v>
+        <v>0.017</v>
       </c>
       <c r="D3" s="9" t="n">
         <f aca="false">3/0.58/100</f>
@@ -2117,23 +2117,23 @@
         <v>0.224137931034483</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="8" t="n">
-        <v>0.052</v>
+        <v>0.026</v>
       </c>
       <c r="C4" s="8" t="n">
-        <v>0.052</v>
+        <v>0.026</v>
       </c>
       <c r="D4" s="9" t="n">
-        <f aca="false">13/0.79/100</f>
-        <v>0.164556962025316</v>
+        <f aca="false">13/0.77/100</f>
+        <v>0.168831168831169</v>
       </c>
       <c r="E4" s="9" t="n">
-        <f aca="false">28/0.79/100</f>
-        <v>0.354430379746835</v>
+        <f aca="false">28/0.77/100</f>
+        <v>0.363636363636364</v>
       </c>
     </row>
   </sheetData>

--- a/2021-0313846_slurry_separation/EF_calcs/inputs/inputs.xlsx
+++ b/2021-0313846_slurry_separation/EF_calcs/inputs/inputs.xlsx
@@ -5,11 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Slurry &amp; application" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Climate" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Application climate" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Separation efficiency" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Storage EFs" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
@@ -90,34 +90,6 @@
     <author>SDH</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Sans"/>
-            <family val="0"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Question: correct to use covered values for these?</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Sans"/>
-            <family val="0"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Correct to use covered values?</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="D4" authorId="0">
       <text>
         <r>
@@ -473,18 +445,18 @@
   </sheetPr>
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.14453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.13671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.86"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="2" width="10.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="5" style="1" width="10.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="2" width="10.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="5" style="1" width="10.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.29"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="9" style="1" width="10.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="9" style="1" width="10.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -936,7 +908,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>25</v>
       </c>
@@ -1865,13 +1837,13 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.14453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.13671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.29"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="5" style="1" width="10.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="5" style="1" width="10.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1976,17 +1948,17 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.14453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.13671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.37"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.29"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="1" width="10.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="1" width="10.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2049,20 +2021,20 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.14453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.13671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="1" width="10.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="1" width="10.13"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>

--- a/2021-0313846_slurry_separation/EF_calcs/inputs/inputs.xlsx
+++ b/2021-0313846_slurry_separation/EF_calcs/inputs/inputs.xlsx
@@ -325,7 +325,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -351,6 +351,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -446,10 +450,10 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.13671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.12890625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.86"/>
@@ -578,7 +582,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>18</v>
       </c>
@@ -595,8 +599,9 @@
         <f aca="false">(1-D5)*E$2</f>
         <v>1.755</v>
       </c>
-      <c r="F5" s="5" t="n">
-        <v>7.2</v>
+      <c r="F5" s="7" t="n">
+        <f aca="false">F$2+0.2</f>
+        <v>7.4</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>14</v>
@@ -608,7 +613,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>18</v>
       </c>
@@ -625,8 +630,9 @@
         <f aca="false">(1-D6)*E$3</f>
         <v>2.925</v>
       </c>
-      <c r="F6" s="5" t="n">
-        <v>7</v>
+      <c r="F6" s="7" t="n">
+        <f aca="false">F$3+0.2</f>
+        <v>7.2</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>14</v>
@@ -638,7 +644,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>18</v>
       </c>
@@ -655,8 +661,9 @@
         <f aca="false">(1-D7)*E$4</f>
         <v>2.655</v>
       </c>
-      <c r="F7" s="5" t="n">
-        <v>7.9</v>
+      <c r="F7" s="7" t="n">
+        <f aca="false">F$4+0.2</f>
+        <v>8.1</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>14</v>
@@ -668,7 +675,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>21</v>
       </c>
@@ -685,8 +692,9 @@
         <f aca="false">(1-D8)*E$2</f>
         <v>2.535</v>
       </c>
-      <c r="F8" s="5" t="n">
-        <v>7.2</v>
+      <c r="F8" s="7" t="n">
+        <f aca="false">F$2+0.2</f>
+        <v>7.4</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>14</v>
@@ -698,7 +706,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>21</v>
       </c>
@@ -715,8 +723,9 @@
         <f aca="false">(1-D9)*E$3</f>
         <v>4.225</v>
       </c>
-      <c r="F9" s="5" t="n">
-        <v>7</v>
+      <c r="F9" s="7" t="n">
+        <f aca="false">F$3+0.2</f>
+        <v>7.2</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>14</v>
@@ -728,7 +737,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>21</v>
       </c>
@@ -745,8 +754,9 @@
         <f aca="false">(1-D10)*E$4</f>
         <v>3.835</v>
       </c>
-      <c r="F10" s="5" t="n">
-        <v>7.9</v>
+      <c r="F10" s="7" t="n">
+        <f aca="false">F$4+0.2</f>
+        <v>8.1</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>14</v>
@@ -758,7 +768,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>23</v>
       </c>
@@ -775,8 +785,9 @@
         <f aca="false">(1-D11)*E$2</f>
         <v>3.315</v>
       </c>
-      <c r="F11" s="5" t="n">
-        <v>7.2</v>
+      <c r="F11" s="7" t="n">
+        <f aca="false">F$2+0.2</f>
+        <v>7.4</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>14</v>
@@ -788,7 +799,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>23</v>
       </c>
@@ -805,8 +816,9 @@
         <f aca="false">(1-D12)*E$3</f>
         <v>5.525</v>
       </c>
-      <c r="F12" s="5" t="n">
-        <v>7</v>
+      <c r="F12" s="7" t="n">
+        <f aca="false">F$3+0.2</f>
+        <v>7.2</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>14</v>
@@ -818,7 +830,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>23</v>
       </c>
@@ -835,8 +847,9 @@
         <f aca="false">(1-D13)*E$4</f>
         <v>5.015</v>
       </c>
-      <c r="F13" s="5" t="n">
-        <v>7.9</v>
+      <c r="F13" s="7" t="n">
+        <f aca="false">F$4+0.2</f>
+        <v>8.1</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>14</v>
@@ -848,7 +861,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>25</v>
       </c>
@@ -865,8 +878,9 @@
         <f aca="false">(1-D14)*E$2</f>
         <v>3.315</v>
       </c>
-      <c r="F14" s="5" t="n">
-        <v>7.2</v>
+      <c r="F14" s="7" t="n">
+        <f aca="false">F$2+0.2</f>
+        <v>7.4</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>14</v>
@@ -878,7 +892,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>25</v>
       </c>
@@ -895,8 +909,9 @@
         <f aca="false">(1-D15)*E$3</f>
         <v>5.525</v>
       </c>
-      <c r="F15" s="5" t="n">
-        <v>7</v>
+      <c r="F15" s="7" t="n">
+        <f aca="false">F$3+0.2</f>
+        <v>7.2</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>14</v>
@@ -925,8 +940,9 @@
         <f aca="false">(1-D16)*E$4</f>
         <v>5.015</v>
       </c>
-      <c r="F16" s="5" t="n">
-        <v>7.9</v>
+      <c r="F16" s="7" t="n">
+        <f aca="false">F$4+0.2</f>
+        <v>8.1</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>14</v>
@@ -1837,7 +1853,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.13671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.12890625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8"/>
@@ -1864,13 +1880,13 @@
       <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="7" t="n">
+      <c r="B2" s="8" t="n">
         <v>4.43101207056639</v>
       </c>
-      <c r="C2" s="7" t="n">
+      <c r="C2" s="8" t="n">
         <v>4.05891613991413</v>
       </c>
-      <c r="D2" s="7" t="n">
+      <c r="D2" s="8" t="n">
         <v>0.0599629009095261</v>
       </c>
     </row>
@@ -1878,13 +1894,13 @@
       <c r="A3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="7" t="n">
+      <c r="B3" s="8" t="n">
         <v>8.23645983645984</v>
       </c>
-      <c r="C3" s="7" t="n">
+      <c r="C3" s="8" t="n">
         <v>3.84445591865745</v>
       </c>
-      <c r="D3" s="7" t="n">
+      <c r="D3" s="8" t="n">
         <v>0.0552119412831931</v>
       </c>
     </row>
@@ -1892,13 +1908,13 @@
       <c r="A4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="7" t="n">
+      <c r="B4" s="8" t="n">
         <v>12.4492495309568</v>
       </c>
-      <c r="C4" s="7" t="n">
+      <c r="C4" s="8" t="n">
         <v>3.48391526295633</v>
       </c>
-      <c r="D4" s="7" t="n">
+      <c r="D4" s="8" t="n">
         <v>0.0702993488962998</v>
       </c>
     </row>
@@ -1906,13 +1922,13 @@
       <c r="A5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="7" t="n">
+      <c r="B5" s="8" t="n">
         <v>16.8762259816193</v>
       </c>
-      <c r="C5" s="7" t="n">
+      <c r="C5" s="8" t="n">
         <v>3.15624012423227</v>
       </c>
-      <c r="D5" s="7" t="n">
+      <c r="D5" s="8" t="n">
         <v>0.105925308296069</v>
       </c>
     </row>
@@ -1920,13 +1936,13 @@
       <c r="A6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="7" t="n">
+      <c r="B6" s="8" t="n">
         <v>14.4977479635841</v>
       </c>
-      <c r="C6" s="7" t="n">
+      <c r="C6" s="8" t="n">
         <v>3.32276959833633</v>
       </c>
-      <c r="D6" s="7" t="n">
+      <c r="D6" s="8" t="n">
         <v>0.128260170445409</v>
       </c>
     </row>
@@ -1952,7 +1968,7 @@
       <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.13671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.12890625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.37"/>
@@ -2024,7 +2040,7 @@
       <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.13671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.12890625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.57"/>
@@ -2055,17 +2071,17 @@
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="8" t="n">
+      <c r="B2" s="9" t="n">
         <v>0.013</v>
       </c>
-      <c r="C2" s="8" t="n">
+      <c r="C2" s="9" t="n">
         <v>0.013</v>
       </c>
-      <c r="D2" s="9" t="n">
+      <c r="D2" s="10" t="n">
         <f aca="false">13/0.79/100</f>
         <v>0.164556962025316</v>
       </c>
-      <c r="E2" s="9" t="n">
+      <c r="E2" s="10" t="n">
         <f aca="false">28/0.79/100</f>
         <v>0.354430379746835</v>
       </c>
@@ -2074,17 +2090,17 @@
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="8" t="n">
+      <c r="B3" s="9" t="n">
         <v>0.017</v>
       </c>
-      <c r="C3" s="8" t="n">
+      <c r="C3" s="9" t="n">
         <v>0.017</v>
       </c>
-      <c r="D3" s="9" t="n">
+      <c r="D3" s="10" t="n">
         <f aca="false">3/0.58/100</f>
         <v>0.0517241379310345</v>
       </c>
-      <c r="E3" s="9" t="n">
+      <c r="E3" s="10" t="n">
         <f aca="false">13/0.58/100</f>
         <v>0.224137931034483</v>
       </c>
@@ -2093,17 +2109,17 @@
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="8" t="n">
+      <c r="B4" s="9" t="n">
         <v>0.026</v>
       </c>
-      <c r="C4" s="8" t="n">
+      <c r="C4" s="9" t="n">
         <v>0.026</v>
       </c>
-      <c r="D4" s="9" t="n">
+      <c r="D4" s="10" t="n">
         <f aca="false">13/0.77/100</f>
         <v>0.168831168831169</v>
       </c>
-      <c r="E4" s="9" t="n">
+      <c r="E4" s="10" t="n">
         <f aca="false">28/0.77/100</f>
         <v>0.363636363636364</v>
       </c>
